--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/REFrameworkNET5/StudioTemplates/REFramework/contentFiles/any/any/pt2/VisualBasic/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e0512a05d427980/Documents/UiPath/Usecase2_ActiveLoans/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F46EE679-0373-43BE-BC29-33A8F36F0D28}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t>https://botsdna.com/ActiveLoans/</t>
+  </si>
+  <si>
+    <t>ActiveLoansUrl</t>
+  </si>
+  <si>
+    <t>Portal link</t>
   </si>
 </sst>
 </file>
@@ -212,10 +221,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -236,6 +245,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,15 +550,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.53125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="3" max="3" width="81.46484375" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -594,7 +607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="42.75">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -604,7 +617,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="28.5">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -616,7 +629,17 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1623,11 +1646,11 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.46484375" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1665,7 +1688,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="28.5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="28.5">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1790,7 +1813,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="28.5">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2782,14 +2805,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.86328125" customWidth="1"/>
+    <col min="2" max="2" width="30.1328125" customWidth="1"/>
     <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="4" max="26" width="65.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e0512a05d427980/Documents/UiPath/Usecase2_ActiveLoans/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F46EE679-0373-43BE-BC29-33A8F36F0D28}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F1C6073-C094-42C5-9EE0-D5DD3327B637}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -1693,7 +1693,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
@@ -1704,7 +1704,7 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>41</v>
